--- a/Taxonomy/evaluation/post_sentences_to_check.xlsx
+++ b/Taxonomy/evaluation/post_sentences_to_check.xlsx
@@ -723,10 +723,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>57839795</v>
+        <v>57806624</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>But it doesn't appear to ever start.</t>
+          <t>This is the error I am getting: -CODE-.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -834,19 +834,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>59240304</v>
+        <v>58222386</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>How to install msi package in the github-actions step on windows?</t>
+          <t>Error, access denied for user 'root'@'localhost' (using password: YES).</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AB4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="b">
         <v>0</v>
@@ -940,15 +940,15 @@
         <v>0</v>
       </c>
       <c r="AI4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>59566458</v>
+        <v>58630097</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The other doesn't work as well, that's why I tried to use the -CODE- option.</t>
+          <t>I wrote a bash script that runs fine locally, but breaks in Github Actions.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="b">
         <v>0</v>
       </c>
       <c r="AC5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>60349533</v>
+        <v>58933795</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>--remote-debugging-address=0.0.0.0</t>
+          <t>The goal is the Action consumer to use a different docker container tag, if he desires.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>61208421</v>
+        <v>59566458</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>When I try to switch projects via -CODE- it errors with the error: -CODE-.</t>
+          <t>increment version.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="b">
         <v>0</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>61289322</v>
+        <v>60176044</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I wondered if anyone has a working example of a YAML script that can be executed using github actions to essentially carry out the following: Installs NSIS onto the GitHub runner machine (not sure if this.</t>
+          <t>Now I'm switching to GitHub Actions, and I want to use my .env files and declare them into the -CODE- section of the github actions yml.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1384,15 +1384,15 @@
         <v>0</v>
       </c>
       <c r="AI8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>61828726</v>
+        <v>60380374</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Python SQLite3 fails on Github Actions but not on local</t>
+          <t>Firebase deploy in Github Actions gives Authorization failed error</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1471,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="b">
         <v>0</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>61828726</v>
+        <v>60881927</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>This line is executed a few times in diferent tests succesfully, but then it fails in the rest of the tests (Always the same tests fail) with the next error.</t>
+          <t>I've looked into adding extra headers with cy.visit and cy.request but thry only administer the extra header on the initial request.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="b">
         <v>0</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>61863729</v>
+        <v>61208421</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Do I set wrong path?</t>
+          <t>When I try to switch projects via -CODE- it errors with the error: -CODE-.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="b">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="b">
         <v>0</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>61954361</v>
+        <v>61289322</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>How can I access the build log information in terminal without going to github.com?</t>
+          <t>Thanks in advance.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="b">
         <v>0</v>
@@ -1828,24 +1828,24 @@
         <v>0</v>
       </c>
       <c r="AI12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>61979870</v>
+        <v>62908594</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>But when I write -CODE- to file using -CODE-, it takes the -CODE- convention, i.e.,.</t>
+          <t>How to target container in GitHub actions?</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
@@ -1939,15 +1939,15 @@
         <v>0</v>
       </c>
       <c r="AI13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B14" t="n">
-        <v>61979870</v>
+        <v>64727916</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>For example,.</t>
+          <t>Can anyone provide clarity on the meaning of the -CODE- switch and perhaps a link to some documentation on it?</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="b">
         <v>0</v>
@@ -2050,15 +2050,15 @@
         <v>0</v>
       </c>
       <c r="AI14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>62784756</v>
+        <v>64859065</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2067,14 +2067,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Where can I refer to the list of possible -CODE- names?</t>
+          <t>I am attempting to setup Github actions runner on my Ubuntu VPS and on step 3 where I have to set up the config.sh file, I get the error as : -CODE- and the process fails there.</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="b">
         <v>0</v>
@@ -2161,15 +2161,15 @@
         <v>0</v>
       </c>
       <c r="AI15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>62908594</v>
+        <v>65170927</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GitHub actions is naming the container some arbitrary string.</t>
+          <t>Apparently there is some problem with jq even it seems to be exactly like in example(-LINK-): -CODE-.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2277,10 +2277,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B17" t="n">
-        <v>62908594</v>
+        <v>65205928</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>We are actually moving our repos to github and we want to use github actions for our pipelines, also our testautomation framework based on WebdriverIO.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="b">
         <v>0</v>
@@ -2388,19 +2388,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B18" t="n">
-        <v>63569560</v>
+        <v>66088277</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The project builds fine on my local machine.</t>
+          <t>Unexpected bash readable test result with GitHub Actions</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2470,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="b">
         <v>0</v>
       </c>
       <c r="AC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="b">
         <v>0</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>63691962</v>
+        <v>66182837</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The article does not help.</t>
+          <t>If I understand the process well, an -CODE- is mounted each time to run the jobs ?</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="b">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B20" t="n">
-        <v>64078671</v>
+        <v>66308908</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2622,14 +2622,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>When it gets to the -CODE- step, the invocation creates an error: -CODE-.</t>
+          <t>To speed up the build, I have enabled the build cache in GitHub Actions, as detailed -LINK-.</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="b">
         <v>0</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B21" t="n">
-        <v>64553739</v>
+        <v>66358295</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>I just assumed that I had to be careful not to accept pull requests from unknown provenance.</t>
+          <t>The token has the -CODE- scope, so it has complete access to repositories.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2832,10 +2832,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B22" t="n">
-        <v>64859065</v>
+        <v>66358482</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>My root account is password protected though and I do not understand what is the issue here.</t>
+          <t>UPDATE Two more things I tried: Specifying the -CODE- script as -LINK-: -CODE-, but got an error.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="AB22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="b">
         <v>0</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B23" t="n">
-        <v>65199532</v>
+        <v>66358482</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>npm ERR!</t>
+          <t>Is there any way to use the entrypoint provided by the image without creating a Docker container action?</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AB23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="b">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="b">
         <v>0</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B24" t="n">
-        <v>65205928</v>
+        <v>66598412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>I tried the following ways at first: Executing the tests using the chromedriver directly on ubuntu-latest image occurs an error: -CODE-.</t>
+          <t>Now the library was linking properly (or so it seems), but now it couldn't find some exported symbols.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -3091,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3136,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="b">
         <v>0</v>
       </c>
       <c r="AD24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B25" t="n">
-        <v>65820392</v>
+        <v>66877085</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Github actions is installing Boto3 successfully but script is executing with following error: error: -CODE-.</t>
+          <t>Is it possible to build GH action within repo A, to detect changes in repo B and pull from there?</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="b">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="b">
         <v>0</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B26" t="n">
-        <v>65855054</v>
+        <v>67800532</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Can you have multiple working directories with github actions?</t>
+          <t>do i have to install npm (or some source) to make this work on github actions?</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B27" t="n">
-        <v>66182837</v>
+        <v>67937238</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>What is the lightest linux environment can you mount in GitHub actions</t>
+          <t>I Just switched to parallel tests in Mocha which works great, however, when I'm running it on github, it doesn't appear to be running in parallel.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="AD27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="AG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="b">
         <v>0</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B28" t="n">
-        <v>66273666</v>
+        <v>68136219</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Can anyone please help me through this issue.</t>
+          <t>Best regards.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -3609,10 +3609,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B29" t="n">
-        <v>66358295</v>
+        <v>68244484</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3621,11 +3621,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>I know that I can split them up into separate repositories and solve it that way, but I am looking for a solution where I don't have to do that.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="b">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AH29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="b">
         <v>0</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B30" t="n">
-        <v>67472935</v>
+        <v>68303446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>My workflow looks like this.</t>
+          <t>Is there an issue in regards to that when using Github actions?</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="b">
         <v>0</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B31" t="n">
-        <v>67786526</v>
+        <v>68303446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>in official docs it says the same path and locally i can build apk successfully (on windows machine).</t>
+          <t>As soon as I pushed it to github.com, my github action fails.</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="b">
         <v>1</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B32" t="n">
-        <v>67861379</v>
+        <v>68410854</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>here is my -LINK-.</t>
+          <t>What am I doing wrong and how would you go about doing this using github actions ?</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="b">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="b">
         <v>0</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B33" t="n">
-        <v>67937238</v>
+        <v>68759500</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-CODE-</t>
+          <t>Create a virtual environment: -CODE-.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -4164,26 +4164,26 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B34" t="n">
-        <v>67989505</v>
+        <v>68759500</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GitHub Actions Docker build and push failed to copy: unexpected status: 413 Request Entity Too Large</t>
+          <t>Set up Python 3.7: -CODE-.</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -4246,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="b">
         <v>0</v>
@@ -4275,10 +4275,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B35" t="n">
-        <v>68108398</v>
+        <v>68767043</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>i've tried every combination, and it won't work...so, i'm thinking maybe it didnt unzip right??</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" t="b">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="AG35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="b">
         <v>0</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B36" t="n">
-        <v>68136219</v>
+        <v>68767043</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>But it didn't help me.</t>
+          <t>it seems like the unzip worked..but i'm getting hung up on the tag: -CODE-.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -4468,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="b">
         <v>0</v>
@@ -4497,19 +4497,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B37" t="n">
-        <v>68136219</v>
+        <v>68812228</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Best regards.</t>
+          <t>Nuxt Fatal Error starting nuxt in GitHub Actions</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -4579,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="b">
         <v>0</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B38" t="n">
-        <v>68244484</v>
+        <v>68812228</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4620,11 +4620,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>I know that I can split them up into separate repositories and solve it that way, but I am looking for a solution where I don't have to do that.</t>
+          <t>I'm receiving a Nuxt Fatal error that I can't seem to figure out from reading the stack when building the app.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="AB38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="b">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AH38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="b">
         <v>0</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B39" t="n">
-        <v>68938010</v>
+        <v>69263214</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4731,23 +4731,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>But i have an issue every time i tried to tag a commit to trigger the pipeline, it fails at the part of committing the kustomize.yaml with this error.</t>
+          <t>The emulator runs, but the test cases fail.</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B40" t="n">
-        <v>69160610</v>
+        <v>69263214</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4842,14 +4842,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>What do I need to change to make sure that my playbook runs in GitHub actions?</t>
+          <t>The problem seems to be for the job "unit_test" (-CODE-).</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="AB40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="b">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="b">
         <v>0</v>
@@ -4941,26 +4941,26 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41" t="n">
-        <v>69430109</v>
+        <v>69385940</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>However when I run -CODE- in github actions, it installs the dependencies but never shows that line where it installed the current project.</t>
+          <t>running tests on github actions with FastAPI fails due to it trying to connect to hosted DB first</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -5023,16 +5023,16 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="b">
         <v>0</v>
       </c>
       <c r="AD41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="b">
         <v>0</v>
@@ -5052,10 +5052,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" t="n">
-        <v>69465391</v>
+        <v>69430109</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Here is my /etc/ssh/sshd_config on the docker droplet on digital ocean.</t>
+          <t>Any help would be much appreciated!</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -5163,10 +5163,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" t="n">
-        <v>69520599</v>
+        <v>69430109</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>I'm new to Github Actions -- should I be running something before the clone command?</t>
+          <t>I'm switching a python project over to poetry for dependency and packaging management, and am running into issues getting my github actions unit tests working.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -5188,13 +5188,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="b">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="b">
         <v>0</v>
@@ -5281,12 +5281,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>What am I missing?</t>
+          <t>GitHub Actions: workflow never ends</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="b">
         <v>0</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B45" t="n">
-        <v>70386650</v>
+        <v>69646986</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5397,11 +5397,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>I've been getting up-to-speed on using Docker within GitHub Actions, and I keep running across code like this: -CODE-.</t>
+          <t>Actually, I'd prefer an alternative approach where the whole thing is inside the same repository, but I don't know if it's possible to show something (the built page) in Github Pages without committing them.</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB45" t="b">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="AG45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" t="b">
         <v>0</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" t="n">
-        <v>70610678</v>
+        <v>70556460</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5508,14 +5508,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The step Get deployment URL fails with an environment is null error.</t>
+          <t>Also, I would like the cloned repository to be set as private.</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="AB46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AF46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG46" t="b">
         <v>0</v>
@@ -5619,17 +5619,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The "strange" thing is that sometimes the test passes and sometimes it doesn't.</t>
+          <t>The -CODE- looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="b">
         <v>0</v>
@@ -5718,29 +5718,29 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B48" t="n">
-        <v>72017244</v>
+        <v>70758763</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>How to fix this workflow issue "there is no POM in this directory" in GitHub Actions?</t>
+          <t>The "strange" thing is that sometimes the test passes and sometimes it doesn't.</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5824,15 +5824,15 @@
         <v>0</v>
       </c>
       <c r="AI48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B49" t="n">
-        <v>72017244</v>
+        <v>70953788</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>I was trying apply the concept of calling reusable workflows.</t>
+          <t>I've already pushed images to the repository locally and it works, so I don't think anything is wrong on the AWS side of things.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -5940,10 +5940,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B50" t="n">
-        <v>72493761</v>
+        <v>70953788</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>My deploy.yaml workflow looks identical to the one in the above link, only with the correct environment variables substituted.</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -6051,10 +6051,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B51" t="n">
-        <v>72570201</v>
+        <v>71885354</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>So, i have tried different versions of this, but i still cannot get it right.</t>
+          <t>My yaml file looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -6133,10 +6133,10 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="b">
         <v>0</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B52" t="n">
-        <v>72646802</v>
+        <v>71885354</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6174,14 +6174,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Using Github Actions to Generate a CSV File and Send the CSV File to Box</t>
+          <t>'set-env' error when trying to build Android app using GitHub Actions - don't understand how to use Environment Files in this circumstance</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" t="b">
         <v>0</v>
@@ -6268,15 +6268,15 @@
         <v>0</v>
       </c>
       <c r="AI52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" t="n">
-        <v>72646802</v>
+        <v>72478547</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>We want to put those files in a box folder (box is like One Drive or Google Drive for those unfamiliar).</t>
+          <t>I guess it cannot do that.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="b">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AF53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="b">
         <v>0</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B54" t="n">
-        <v>72819996</v>
+        <v>72493761</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>deploy.yml.</t>
+          <t>Index.tsx: -CODE-.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -6495,19 +6495,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B55" t="n">
-        <v>72919393</v>
+        <v>72784760</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Why does Github actions rest API download artifacts by creating a temporary URL?</t>
+          <t>-CODE-</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="b">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AG55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="b">
         <v>0</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B56" t="n">
-        <v>73080088</v>
+        <v>72994320</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Removing the lib that was returning an error (actually, the issue seems to happen with any lib, so that's the reason why I understand it's probably related to poetry and python).</t>
+          <t>Any ideas why this might occur?</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="b">
         <v>0</v>
@@ -6717,10 +6717,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" t="n">
-        <v>73128465</v>
+        <v>73080088</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>This fails, with Docker unable to find the .war file.</t>
+          <t>Removing the lib that was returning an error (actually, the issue seems to happen with any lib, so that's the reason why I understand it's probably related to poetry and python).</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -6828,10 +6828,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B58" t="n">
-        <v>73319566</v>
+        <v>73128465</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>When the tests are done (and passing), the docker container keep running and it's not returning the result to GitHub Actions.</t>
+          <t>So far I have attempted: Retrieving the uploaded artifact (as seen in the code below) and unzipping it.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" t="b">
         <v>0</v>
@@ -6939,10 +6939,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B59" t="n">
-        <v>73327325</v>
+        <v>73178417</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>I am trying to migrate from circle CI to GitHub actions and I am stuck at this step where I am trying to populate the version of a s3 file dynamically.</t>
+          <t>And my dockerfile: -CODE-.</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="b">
         <v>0</v>
@@ -7033,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="AE59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="b">
         <v>0</v>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" t="n">
-        <v>73417515</v>
+        <v>73319566</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7062,11 +7062,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>What are the alternatives to using GitHub Actions, I was thinking of running a custom action of -CODE- and setting up a local runner on my side.</t>
+          <t>When the tests are done (and passing), the docker container keep running and it's not returning the result to GitHub Actions.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -7078,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -7132,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="b">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AH60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="b">
         <v>0</v>
@@ -7161,10 +7161,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B61" t="n">
-        <v>73483825</v>
+        <v>73327325</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-CODE-</t>
+          <t>However, I get the following error when I run it on GitHub actions.</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -7272,10 +7272,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B62" t="n">
-        <v>73497571</v>
+        <v>73327325</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>I'm also wondering what the best workaround is.</t>
+          <t>I am trying to migrate from circle CI to GitHub actions and I am stuck at this step where I am trying to populate the version of a s3 file dynamically.</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB62" t="b">
         <v>0</v>
@@ -7366,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="AE62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="b">
         <v>0</v>
@@ -7383,10 +7383,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B63" t="n">
-        <v>73853178</v>
+        <v>73327325</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Using organization secrets in github actions is not an option here as we have +2500 repositories in our organization and our application has around 10 repositories only.</t>
+          <t>-CODE-.</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -7494,10 +7494,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B64" t="n">
-        <v>74114983</v>
+        <v>73483825</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>I am trying to move a file from a folder to another through GitHub actions.</t>
+          <t>How would you automate all this with github actions.</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AF64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="b">
         <v>0</v>
@@ -7600,15 +7600,15 @@
         <v>0</v>
       </c>
       <c r="AI64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B65" t="n">
-        <v>74386773</v>
+        <v>73626276</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>The output is.</t>
+          <t>This could well be the problem but I'm not yet sure why.</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" t="b">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="AG65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH65" t="b">
         <v>0</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B66" t="n">
-        <v>74912797</v>
+        <v>73717018</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maybe it's something to do with the Docker version?</t>
+          <t>Makefile looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="b">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="AG66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="b">
         <v>0</v>
@@ -7827,10 +7827,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B67" t="n">
-        <v>75061237</v>
+        <v>73951328</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The tests run and pass successfully but it never moves onto the next step in my workflow.</t>
+          <t>I am able use the scheduler in Actions workflow using schedule cron as below, But need to push an empty commit to the default branch at that frequency.</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB67" t="b">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="AF67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" t="b">
         <v>0</v>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B68" t="n">
-        <v>75290662</v>
+        <v>74112918</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Will GitHub action's matrix strategy works for my case?</t>
+          <t>What would be the way to capture those errored log lines in job2, in order to take some actions with them?</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -8011,13 +8011,13 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
       </c>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
         <v>1</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B69" t="n">
-        <v>75478713</v>
+        <v>74266971</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Is it even feasible for me to open the port 3000, connect to the external ip that I find from the "Check IP" step, and do that verification manually?</t>
+          <t>This is what I tried: -CODE-.</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="b">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="AG69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="b">
         <v>0</v>
@@ -8160,19 +8160,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B70" t="n">
-        <v>75750113</v>
+        <v>74349847</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Github actions - Writing to GITHUB_ENV from a javascript file</t>
+          <t>When I click on the secret again to view the value, it shows nothing, and the field is completely blank.</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70" t="b">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="AD70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="b">
         <v>0</v>
@@ -8271,19 +8271,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="B71" t="n">
-        <v>75991359</v>
+        <v>74416617</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>GitHub Actions restrict job with tag validation using if condition or github ref</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -8382,10 +8382,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B72" t="n">
-        <v>75996853</v>
+        <v>74812256</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>I'm not sure if I am capturing the -CODE- properly or if there is a better way to do this.</t>
+          <t>and this line: -CODE- seems to give me the following error: -CODE-.</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="b">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AG72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH72" t="b">
         <v>0</v>
@@ -8493,19 +8493,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B73" t="n">
-        <v>76029565</v>
+        <v>75045263</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Suddenly can't connect without a private SSH key or password in GitHub actions</t>
+          <t>Nothing's worked so far and I'm not seeing any other resources that can help me solve this issue.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -8604,10 +8604,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B74" t="n">
-        <v>76029565</v>
+        <v>75162480</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>This is my yml code.</t>
+          <t>So, what implementation for the -CODE- would be?</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -8715,10 +8715,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B75" t="n">
-        <v>76151656</v>
+        <v>75290662</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>Will GitHub action's matrix strategy works for my case?</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -8794,10 +8794,10 @@
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75" t="b">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="AG75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH75" t="b">
         <v>0</v>
@@ -8826,10 +8826,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B76" t="n">
-        <v>76168022</v>
+        <v>75290662</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Does anyone have any examples that you might want to share?</t>
+          <t>The problem is that the process takes about 30 minutes to complete as I have to clear the destination buckets before copying the data.</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="b">
         <v>0</v>
@@ -8932,15 +8932,15 @@
         <v>0</v>
       </c>
       <c r="AI76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B77" t="n">
-        <v>76262960</v>
+        <v>75399577</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>With this command, I don't know which option I should use: -CODE-.</t>
+          <t>Whats the right way to deploy my spring boot applcation to my internal host machine?</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -9048,19 +9048,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B78" t="n">
-        <v>76266314</v>
+        <v>75559868</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>I'd like to have this script automatically run upon push of new firmware to a repository.</t>
+          <t>Does github actions support vnc enable?</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78" t="n">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="AF78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH78" t="b">
         <v>0</v>
@@ -9159,19 +9159,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B79" t="n">
-        <v>76303782</v>
+        <v>75996853</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Is there a simple way to do this without some additional Workflow to monitor and dispatch things?</t>
+          <t>Why is my Github Actions job being skipped?</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B80" t="n">
-        <v>76312191</v>
+        <v>75996853</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Do I maybe need to add an authToken or something else?</t>
+          <t>I'm not sure if I am capturing the -CODE- properly or if there is a better way to do this.</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -9343,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -9381,10 +9381,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B81" t="n">
-        <v>76312191</v>
+        <v>76168022</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9393,11 +9393,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Also, is there another way to fetch all pages in Notion below a specified root page?</t>
+          <t>Does anyone have any examples that you might want to share?</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -9484,18 +9484,18 @@
         <v>0</v>
       </c>
       <c r="AH81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B82" t="n">
-        <v>76512235</v>
+        <v>76181798</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>and this is how my Dockerfile looks: -CODE-.</t>
+          <t>Is it normal for releases made by -CODE- to not trigger a -CODE- webhook event?</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -9568,13 +9568,13 @@
         <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82" t="b">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AG82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH82" t="b">
         <v>0</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B83" t="n">
-        <v>76512235</v>
+        <v>76259462</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No dbt_project.yml found at expected path /home/dbt_project.yml".</t>
+          <t>Maybe because of GitHub Actions environment nature I should connect to some exieting network or specify it somehow?</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="AB83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83" t="b">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AG83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH83" t="b">
         <v>0</v>
@@ -9714,19 +9714,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B84" t="n">
-        <v>76570482</v>
+        <v>76262960</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Why am I getting "Cannot find module" error on "tsc" command, only on GitHub Actions?</t>
+          <t>Could you please provide an example for me to refer?</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="n">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -9814,30 +9814,30 @@
         <v>0</v>
       </c>
       <c r="AG84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH84" t="b">
         <v>0</v>
       </c>
       <c r="AI84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B85" t="n">
-        <v>76746551</v>
+        <v>76312191</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>How to use GitHub Actions Environment Secrets in open source pull request CI workflow?</t>
+          <t>I am using -LINK- and the unofficial Notion API for a Next.js project and am having lots of problems with it.</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="AB85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85" t="b">
         <v>0</v>
@@ -9931,15 +9931,15 @@
         <v>0</v>
       </c>
       <c r="AI85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B86" t="n">
-        <v>76746551</v>
+        <v>76312191</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>In each repo (main, dev fork) I have set up GitHub Secrets environments with the name -CODE-.</t>
+          <t>Also, is there another way to fetch all pages in Notion below a specified root page?</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86" t="b">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AH86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86" t="b">
         <v>0</v>
@@ -10047,26 +10047,26 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B87" t="n">
-        <v>76746551</v>
+        <v>76405126</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>But when the CI action runs in the main repo as part of a PR (from myself), the tests fail due to a missing -CODE- (as expected, based on the GitHub doc cited above).</t>
+          <t>GitHub Actions and AWS RDS connect and build error</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -10078,10 +10078,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB87" t="b">
         <v>1</v>
@@ -10158,10 +10158,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B88" t="n">
-        <v>76746551</v>
+        <v>76424344</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>This situation is unsatisfactory, because I can not even run CI on my own PRs in the main repo without them failing due to unavailable secrets.</t>
+          <t>My data comes from a file in the fixture folder: -CODE-.</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -10240,10 +10240,10 @@
         <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="b">
         <v>0</v>
@@ -10269,10 +10269,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B89" t="n">
-        <v>76756736</v>
+        <v>76434747</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>I'm facing an issue with running a build job through Github Actions because Error: -CODE- during the Setup Ruby job.</t>
+          <t>However, when running the same tests in a GitHub Actions workflow, pytest fails to recognize any tests and displays the error "collected 0 items" with exit code 5.</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -10303,13 +10303,13 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="AC89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD89" t="b">
         <v>0</v>
@@ -10380,10 +10380,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B90" t="n">
-        <v>76797766</v>
+        <v>76611427</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>I keep getting this error: -BLOCK-.</t>
+          <t>How do I verify if the -CODE- exists in the -CODE- block if I encounter -CODE-.</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="AB90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC90" t="b">
         <v>0</v>
@@ -10486,31 +10486,31 @@
         <v>0</v>
       </c>
       <c r="AI90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B91" t="n">
-        <v>76861533</v>
+        <v>76746551</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>dart tools error using build_runner on github actions</t>
+          <t>But when the CI action runs in the main repo as part of a PR (from myself), the tests fail due to a missing -CODE- (as expected, based on the GitHub doc cited above).</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="AA91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB91" t="b">
         <v>1</v>
@@ -10602,10 +10602,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B92" t="n">
-        <v>76887397</v>
+        <v>76756736</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10614,14 +10614,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>It appears that GitHub actions are blocking outbound port 587 to my SMTP server.</t>
+          <t>I'm facing an issue with running a build job through Github Actions because Error: -CODE- during the Setup Ruby job.</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -10633,13 +10633,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB92" t="b">
         <v>1</v>
@@ -10713,19 +10713,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B93" t="n">
-        <v>76969053</v>
+        <v>76976570</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>GitHub actions Liquibase update with port forwarding</t>
+          <t>-CODE-.</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -10935,10 +10935,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B95" t="n">
-        <v>77116717</v>
+        <v>77237797</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>What's the equivalent of GitLab's -CODE- keyword in GitHub Actions?</t>
+          <t>Another solution I am thinking of is to get all the operations from aws-actions/configure-aws-credentials + aws-actions/amazon-ecr-login and put them as a prepare_job mentioned in the docs for runners: -LINK-.</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="AA95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95" t="b">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="AE95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="b">
         <v>0</v>
@@ -11268,26 +11268,26 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B98" t="n">
-        <v>77283060</v>
+        <v>77395114</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>body</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>GitHub actions issue with .net framework nuget package</t>
+          <t>And the output in my Actions log is: -CODE-.</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -11350,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="AA98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC98" t="b">
         <v>0</v>
@@ -11379,10 +11379,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B99" t="n">
-        <v>77318666</v>
+        <v>77446605</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>My solution was to use Github actions to push any updates to a supported Azure DevOps Repo, but when I get the following error: hint: You have divergent branches and need to specify how to reconcile them.</t>
+          <t>Why does this fail in Github Actions but works fine locally?</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -11419,10 +11419,10 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -11461,13 +11461,13 @@
         <v>0</v>
       </c>
       <c r="AA99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99" t="b">
         <v>0</v>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>I have my unittests in a top level -CODE- folder for my Python project that uses poetry (-LINK- to code).</t>
+          <t>But, this fails (-LINK- to logs): -CODE-.</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -11572,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC100" t="b">
         <v>0</v>
@@ -11613,14 +11613,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>The code works perfectly when executed locally on my Mac but encounters problems in the GitHub Actions environment.</t>
+          <t>While connecting to AWS and retrieving the audio as a pydub.AudioSegment works, accessing the metadata fails.</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -11683,13 +11683,13 @@
         <v>0</v>
       </c>
       <c r="AA101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD101" t="b">
         <v>0</v>
